--- a/Prácticas/Práctica_9/P6_proyecto_visual_studio/P6/ej3/plantilla_grafica_ej3.xlsx
+++ b/Prácticas/Práctica_9/P6_proyecto_visual_studio/P6/ej3/plantilla_grafica_ej3.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodriguj\Dropbox\ASD 2012-13\ASD practicas 12-13\Grupo espanyol\P6\asdp6_version_Migue\ej3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Repositorios\ASD\Prácticas\Práctica_9\P6_proyecto_visual_studio\P6\ej3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB99FF2B-4F82-4837-B2B1-B4308D774DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -507,30 +520,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -611,25 +604,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +641,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -691,7 +680,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -735,7 +724,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -871,63 +859,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.2379862700228835E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.8142347650798574E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.3414708574916081E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.887560867640549E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.4392004441976679E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.16578200259034712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.27361963114129501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.41384125822204704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.52034585502668318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.63055875539965078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.84655361518600258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.97030394594900382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.167121081950496</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.486746430578461</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.2916639230438862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.0638728991619051</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.1589588001215183</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.99088745982625759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94F9-41B8-8A0E-AB2674AC2986}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1029,63 +1022,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5671641791044775E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.2892760588765398E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.053965210245172E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.11153703474712502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.23591782645512918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.42600574773946359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.69924145336320964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.42212834333258131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.1812751092609686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.5888412938554077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.5134850483271316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.5882472305200204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.961854163014199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.010508256064174</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.9349754846838867</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.6023951016178672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.8773742464670926</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.3625546998873777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94F9-41B8-8A0E-AB2674AC2986}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1187,63 +1185,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0943199583116207E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5868229241103331E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.8949478748997594E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.8640399556048836E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.19390767544820184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.4982127841211102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.53850634650920204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.3074134992592592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.6270037380769105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.553861050976193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.7570892021789624</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.8466247576538664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.9297673511291149</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.3074134152000014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.6446800670509627</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.7849770408462124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.4276497286268808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.2767862166047061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94F9-41B8-8A0E-AB2674AC2986}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1375,7 +1378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2002,7 +2004,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2282,11 +2290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,387 +2376,603 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="4"/>
+      <c r="C2">
+        <v>1.6875</v>
+      </c>
+      <c r="D2">
+        <v>1.828125</v>
+      </c>
+      <c r="E2">
+        <v>1.7109375</v>
+      </c>
+      <c r="F2">
+        <v>1.55859375</v>
+      </c>
+      <c r="G2">
+        <v>1.328125</v>
+      </c>
+      <c r="H2">
+        <v>1.31152344</v>
+      </c>
+      <c r="I2">
+        <v>1.30664062</v>
+      </c>
+      <c r="J2">
+        <v>1.3022460899999999</v>
+      </c>
+      <c r="K2">
+        <v>1.3002929700000001</v>
+      </c>
+      <c r="L2">
+        <v>1.3024902300000001</v>
+      </c>
+      <c r="M2">
+        <v>1.87161255</v>
+      </c>
+      <c r="N2">
+        <v>1.8220367399999999</v>
+      </c>
+      <c r="O2">
+        <v>2.04445648</v>
+      </c>
+      <c r="P2">
+        <v>2.66060257</v>
+      </c>
+      <c r="Q2">
+        <v>2.65386963</v>
+      </c>
+      <c r="R2">
+        <v>2.6873931899999999</v>
+      </c>
+      <c r="S2">
+        <v>2.7202320100000001</v>
+      </c>
+      <c r="T2">
+        <v>2.4248521300000001</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
+      <c r="C3">
+        <v>204.84375</v>
+      </c>
+      <c r="D3">
+        <v>100.765625</v>
+      </c>
+      <c r="E3">
+        <v>51.203125</v>
+      </c>
+      <c r="F3">
+        <v>26.47265625</v>
+      </c>
+      <c r="G3">
+        <v>14.0703125</v>
+      </c>
+      <c r="H3">
+        <v>7.9111328099999998</v>
+      </c>
+      <c r="I3">
+        <v>4.7753906199999996</v>
+      </c>
+      <c r="J3">
+        <v>3.1467285199999999</v>
+      </c>
+      <c r="K3">
+        <v>2.49890137</v>
+      </c>
+      <c r="L3">
+        <v>2.0656127899999999</v>
+      </c>
+      <c r="M3">
+        <v>2.21086121</v>
+      </c>
+      <c r="N3">
+        <v>1.87779999</v>
+      </c>
+      <c r="O3">
+        <v>1.7517089800000001</v>
+      </c>
+      <c r="P3">
+        <v>1.78954697</v>
+      </c>
+      <c r="Q3">
+        <v>2.05461311</v>
+      </c>
+      <c r="R3">
+        <v>2.5260472300000001</v>
+      </c>
+      <c r="S3">
+        <v>2.3471343500000001</v>
+      </c>
+      <c r="T3">
+        <v>2.4471519000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="e">
+      <c r="C4" s="4">
         <f>C2/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="11" t="e">
+        <v>8.2379862700228835E-3</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" ref="D4:T4" si="1">D2/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="11" t="e">
+        <v>1.8142347650798574E-2</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="11" t="e">
+        <v>3.3414708574916081E-2</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="11" t="e">
+        <v>5.887560867640549E-2</v>
+      </c>
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="11" t="e">
+        <v>9.4392004441976679E-2</v>
+      </c>
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="11" t="e">
+        <v>0.16578200259034712</v>
+      </c>
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="11" t="e">
+        <v>0.27361963114129501</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="11" t="e">
+        <v>0.41384125822204704</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="11" t="e">
+        <v>0.52034585502668318</v>
+      </c>
+      <c r="L4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="11" t="e">
+        <v>0.63055875539965078</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="11" t="e">
+        <v>0.84655361518600258</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="11" t="e">
+        <v>0.97030394594900382</v>
+      </c>
+      <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="11" t="e">
+        <v>1.167121081950496</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="11" t="e">
+        <v>1.486746430578461</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="11" t="e">
+        <v>1.2916639230438862</v>
+      </c>
+      <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="11" t="e">
+        <v>1.0638728991619051</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="12" t="e">
+        <v>1.1589588001215183</v>
+      </c>
+      <c r="T4" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.99088745982625759</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="4"/>
+      <c r="C5">
+        <v>3.28125</v>
+      </c>
+      <c r="D5">
+        <v>3.421875</v>
+      </c>
+      <c r="E5">
+        <v>3.453125</v>
+      </c>
+      <c r="F5">
+        <v>3.5234375</v>
+      </c>
+      <c r="G5">
+        <v>3.4765625</v>
+      </c>
+      <c r="H5">
+        <v>3.47460938</v>
+      </c>
+      <c r="I5">
+        <v>3.4658203099999998</v>
+      </c>
+      <c r="J5">
+        <v>3.4641113300000002</v>
+      </c>
+      <c r="K5">
+        <v>3.4638671900000002</v>
+      </c>
+      <c r="L5">
+        <v>3.4640502899999999</v>
+      </c>
+      <c r="M5">
+        <v>3.46450806</v>
+      </c>
+      <c r="N5">
+        <v>3.4642333999999999</v>
+      </c>
+      <c r="O5">
+        <v>3.5157470700000002</v>
+      </c>
+      <c r="P5">
+        <v>3.63831711</v>
+      </c>
+      <c r="Q5">
+        <v>3.6183338200000001</v>
+      </c>
+      <c r="R5">
+        <v>3.665905</v>
+      </c>
+      <c r="S5">
+        <v>3.68412066</v>
+      </c>
+      <c r="T5">
+        <v>3.60524106</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
+      <c r="C6">
+        <v>209.375</v>
+      </c>
+      <c r="D6">
+        <v>104.03125</v>
+      </c>
+      <c r="E6">
+        <v>57.0390625</v>
+      </c>
+      <c r="F6">
+        <v>31.58984375</v>
+      </c>
+      <c r="G6">
+        <v>14.73632812</v>
+      </c>
+      <c r="H6">
+        <v>8.15625</v>
+      </c>
+      <c r="I6">
+        <v>4.9565429700000001</v>
+      </c>
+      <c r="J6">
+        <v>8.2062988299999997</v>
+      </c>
+      <c r="K6">
+        <v>2.93231201</v>
+      </c>
+      <c r="L6">
+        <v>2.1802368200000002</v>
+      </c>
+      <c r="M6">
+        <v>2.2890930200000001</v>
+      </c>
+      <c r="N6">
+        <v>2.1811676000000002</v>
+      </c>
+      <c r="O6">
+        <v>1.7920532199999999</v>
+      </c>
+      <c r="P6">
+        <v>1.8096504200000001</v>
+      </c>
+      <c r="Q6">
+        <v>1.8699636500000001</v>
+      </c>
+      <c r="R6">
+        <v>2.2877659800000001</v>
+      </c>
+      <c r="S6">
+        <v>1.96237946</v>
+      </c>
+      <c r="T6">
+        <v>1.52599263</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="e">
+      <c r="C7" s="4">
         <f>C5/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="11" t="e">
+        <v>1.5671641791044775E-2</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" ref="D7:T7" si="2">D5/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="11" t="e">
+        <v>3.2892760588765398E-2</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="11" t="e">
+        <v>6.053965210245172E-2</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="11" t="e">
+        <v>0.11153703474712502</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="11" t="e">
+        <v>0.23591782645512918</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="11" t="e">
+        <v>0.42600574773946359</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="11" t="e">
+        <v>0.69924145336320964</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="11" t="e">
+        <v>0.42212834333258131</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="11" t="e">
+        <v>1.1812751092609686</v>
+      </c>
+      <c r="L7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="11" t="e">
+        <v>1.5888412938554077</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="11" t="e">
+        <v>1.5134850483271316</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="11" t="e">
+        <v>1.5882472305200204</v>
+      </c>
+      <c r="O7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="11" t="e">
+        <v>1.961854163014199</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="11" t="e">
+        <v>2.010508256064174</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="11" t="e">
+        <v>1.9349754846838867</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="11" t="e">
+        <v>1.6023951016178672</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="12" t="e">
+        <v>1.8773742464670926</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.3625546998873777</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="4"/>
+      <c r="C8">
+        <v>2.625</v>
+      </c>
+      <c r="D8">
+        <v>2.828125</v>
+      </c>
+      <c r="E8">
+        <v>2.8203125</v>
+      </c>
+      <c r="F8">
+        <v>2.77734375</v>
+      </c>
+      <c r="G8">
+        <v>2.82226562</v>
+      </c>
+      <c r="H8">
+        <v>4.6279296900000002</v>
+      </c>
+      <c r="I8">
+        <v>8.5766601599999994</v>
+      </c>
+      <c r="J8">
+        <v>10.47973633</v>
+      </c>
+      <c r="K8">
+        <v>11.132324219999999</v>
+      </c>
+      <c r="L8">
+        <v>11.65405273</v>
+      </c>
+      <c r="M8">
+        <v>11.942474369999999</v>
+      </c>
+      <c r="N8">
+        <v>13.541229250000001</v>
+      </c>
+      <c r="O8">
+        <v>14.145286560000001</v>
+      </c>
+      <c r="P8">
+        <v>13.821331020000001</v>
+      </c>
+      <c r="Q8">
+        <v>14.54607582</v>
+      </c>
+      <c r="R8">
+        <v>13.159563540000001</v>
+      </c>
+      <c r="S8">
+        <v>12.132831100000001</v>
+      </c>
+      <c r="T8">
+        <v>12.12405133</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
+      <c r="C9">
+        <v>239.875</v>
+      </c>
+      <c r="D9">
+        <v>109.328125</v>
+      </c>
+      <c r="E9">
+        <v>97.421875</v>
+      </c>
+      <c r="F9">
+        <v>28.15625</v>
+      </c>
+      <c r="G9">
+        <v>14.5546875</v>
+      </c>
+      <c r="H9">
+        <v>9.2890625</v>
+      </c>
+      <c r="I9">
+        <v>15.92675781</v>
+      </c>
+      <c r="J9">
+        <v>8.015625</v>
+      </c>
+      <c r="K9">
+        <v>6.84222412</v>
+      </c>
+      <c r="L9">
+        <v>7.5000610400000003</v>
+      </c>
+      <c r="M9">
+        <v>6.7967376699999997</v>
+      </c>
+      <c r="N9">
+        <v>7.33296204</v>
+      </c>
+      <c r="O9">
+        <v>7.3300476100000003</v>
+      </c>
+      <c r="P9">
+        <v>5.9899673499999997</v>
+      </c>
+      <c r="Q9">
+        <v>5.5001268400000001</v>
+      </c>
+      <c r="R9">
+        <v>7.3723993300000004</v>
+      </c>
+      <c r="S9">
+        <v>4.9977684</v>
+      </c>
+      <c r="T9">
+        <v>3.6999824000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="e">
+      <c r="C10" s="4">
         <f>C8/C9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="11" t="e">
+        <v>1.0943199583116207E-2</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" ref="D10:T10" si="3">D8/D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="11" t="e">
+        <v>2.5868229241103331E-2</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="11" t="e">
+        <v>2.8949478748997594E-2</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="11" t="e">
+        <v>9.8640399556048836E-2</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="11" t="e">
+        <v>0.19390767544820184</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="11" t="e">
+        <v>0.4982127841211102</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="11" t="e">
+        <v>0.53850634650920204</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="11" t="e">
+        <v>1.3074134992592592</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="11" t="e">
+        <v>1.6270037380769105</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="11" t="e">
+        <v>1.553861050976193</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="11" t="e">
+        <v>1.7570892021789624</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="11" t="e">
+        <v>1.8466247576538664</v>
+      </c>
+      <c r="O10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="11" t="e">
+        <v>1.9297673511291149</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="11" t="e">
+        <v>2.3074134152000014</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="11" t="e">
+        <v>2.6446800670509627</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="11" t="e">
+        <v>1.7849770408462124</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="12" t="e">
+        <v>2.4276497286268808</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.2767862166047061</v>
       </c>
     </row>
   </sheetData>
